--- a/JP/9_あとがき.xlsx
+++ b/JP/9_あとがき.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C89FFE-C5A9-41F5-B140-5727067228CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,53 +191,6 @@
   </si>
   <si>
     <r>
-      <t>童話舞台劇ギミック2つ（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赤ずきん劇場</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>と</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>アリス劇場</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>遊園地ギミック2つ（</t>
     </r>
     <r>
@@ -631,10 +583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>テンポ（個人の感じによって数値化、数字高いほどテンションが高い：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>パートごとに明確なテンポの変化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -722,11 +670,62 @@
     <t>どの塔が消えるのがランダムのことによって、このギミックは当コンテンツの中で一番難しいと思います</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>童話劇場ギミック2つ（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赤ずきん劇場</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>アリス劇場</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テンポ（個人の感じによっての数値化、数字高いほどテンションが高い：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -986,7 +985,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1025,6 +1024,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1137,10 +1137,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
@@ -1149,7 +1149,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-419E-4C89-B9EA-C4FE745C0356}"/>
             </c:ext>
@@ -1165,11 +1165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2040015920"/>
-        <c:axId val="2040012656"/>
+        <c:axId val="1757957424"/>
+        <c:axId val="1757957968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2040015920"/>
+        <c:axId val="1757957424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1276,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040012656"/>
+        <c:crossAx val="1757957968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1284,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2040012656"/>
+        <c:axId val="1757957968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040015920"/>
+        <c:crossAx val="1757957424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1449,7 +1449,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1496,6 +1496,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1598,7 +1599,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1075-4280-B01F-C2D0A0FE9EA7}"/>
             </c:ext>
@@ -1614,11 +1615,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2040022448"/>
-        <c:axId val="105550656"/>
+        <c:axId val="1930291008"/>
+        <c:axId val="1930281760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2040022448"/>
+        <c:axId val="1930291008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,7 +1726,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105550656"/>
+        <c:crossAx val="1930281760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1733,7 +1734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105550656"/>
+        <c:axId val="1930281760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,7 +1849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040022448"/>
+        <c:crossAx val="1930291008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3029,7 +3030,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3066,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3087,7 +3088,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3162,23 +3163,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3214,23 +3198,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3406,27 +3373,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
     <col min="5" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="12.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3435,17 +3402,17 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
@@ -3453,9 +3420,9 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3464,7 +3431,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
@@ -3472,77 +3439,77 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3551,336 +3518,336 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="19" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D41" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="3" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="3" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="19" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D47" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E49" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D50" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C52" s="19" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E49" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D50" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C52" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D53" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>4</v>
       </c>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="I54" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D55" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D57" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D58" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D57" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D58" s="3" t="s">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D59" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C63" s="19" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D59" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D61" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C63" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
     </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D64" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E65" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C68" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D69" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="3" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="3" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D76" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D78" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C86" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="3" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C87" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="3" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C92" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E93" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F94" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F96" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F97" s="11">
         <v>0</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I97" s="18">
         <v>3</v>
@@ -3893,12 +3860,12 @@
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
     </row>
-    <row r="98" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F98" s="11">
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I98" s="18">
         <v>4</v>
@@ -3911,12 +3878,12 @@
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
     </row>
-    <row r="99" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F99" s="11">
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I99" s="18">
         <v>6</v>
@@ -3929,12 +3896,12 @@
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
     </row>
-    <row r="100" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F100" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I100" s="18">
         <v>9</v>
@@ -3947,12 +3914,12 @@
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
     </row>
-    <row r="101" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F101" s="11">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I101" s="18">
         <v>3</v>
@@ -3965,12 +3932,12 @@
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
     </row>
-    <row r="102" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F102" s="11">
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I102" s="18">
         <v>4</v>
@@ -3983,12 +3950,12 @@
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
     </row>
-    <row r="103" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F103" s="11">
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I103" s="18">
         <v>6</v>
@@ -4001,12 +3968,12 @@
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
     </row>
-    <row r="104" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F104" s="11">
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I104" s="18">
         <v>10</v>
@@ -4019,12 +3986,12 @@
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
     </row>
-    <row r="105" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F105" s="11">
         <v>0.1076388888888889</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I105" s="18">
         <v>7</v>
@@ -4037,12 +4004,12 @@
       <c r="O105" s="18"/>
       <c r="P105" s="18"/>
     </row>
-    <row r="106" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F106" s="11">
         <v>0.12083333333333333</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I106" s="18">
         <v>3</v>
@@ -4055,12 +4022,12 @@
       <c r="O106" s="18"/>
       <c r="P106" s="18"/>
     </row>
-    <row r="107" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F107" s="11">
         <v>0.13263888888888889</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I107" s="18">
         <v>6</v>
@@ -4073,15 +4040,15 @@
       <c r="O107" s="18"/>
       <c r="P107" s="18"/>
     </row>
-    <row r="108" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F108" s="11">
         <v>0.14652777777777778</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I108" s="18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J108" s="18"/>
       <c r="K108" s="18"/>
@@ -4091,15 +4058,15 @@
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
     </row>
-    <row r="109" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F109" s="11">
         <v>0.15902777777777777</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I109" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
@@ -4109,12 +4076,12 @@
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
     </row>
-    <row r="110" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F110" s="11">
         <v>0.17152777777777775</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I110" s="18">
         <v>3</v>
@@ -4127,43 +4094,43 @@
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
     </row>
-    <row r="111" spans="6:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F111" s="11">
         <v>0.18680555555555556</v>
       </c>
       <c r="G111"/>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E113" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E114" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F115" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F115" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F117" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="118" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F118" s="22">
         <v>0</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I118" s="18">
         <v>3</v>
@@ -4176,12 +4143,12 @@
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
     </row>
-    <row r="119" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F119" s="22">
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I119" s="18">
         <v>6</v>
@@ -4194,12 +4161,12 @@
       <c r="O119" s="18"/>
       <c r="P119" s="18"/>
     </row>
-    <row r="120" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F120" s="22">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I120" s="18">
         <v>6.5</v>
@@ -4212,12 +4179,12 @@
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
     </row>
-    <row r="121" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F121" s="22">
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="G121" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I121" s="18">
         <v>7</v>
@@ -4230,12 +4197,12 @@
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
     </row>
-    <row r="122" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F122" s="22">
         <v>7.013888888888889E-2</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I122" s="18">
         <v>3</v>
@@ -4248,12 +4215,12 @@
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
     </row>
-    <row r="123" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F123" s="22">
         <v>9.2361111111111116E-2</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I123" s="18">
         <v>6</v>
@@ -4266,12 +4233,12 @@
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
     </row>
-    <row r="124" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F124" s="22">
         <v>0.10694444444444444</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I124" s="18">
         <v>6.5</v>
@@ -4284,12 +4251,12 @@
       <c r="O124" s="18"/>
       <c r="P124" s="18"/>
     </row>
-    <row r="125" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F125" s="22">
         <v>0.12291666666666667</v>
       </c>
       <c r="G125" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I125" s="18">
         <v>7</v>
@@ -4302,12 +4269,12 @@
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
     </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F126" s="22">
         <v>0.13749999999999998</v>
       </c>
       <c r="G126" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I126" s="18">
         <v>7</v>
@@ -4320,12 +4287,12 @@
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
     </row>
-    <row r="127" spans="5:16" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:16" x14ac:dyDescent="0.2">
       <c r="F127" s="22">
         <v>0.15833333333333333</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I127" s="18">
         <v>3</v>
@@ -4338,7 +4305,7 @@
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
     </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:16" x14ac:dyDescent="0.2">
       <c r="I128" s="18"/>
       <c r="J128" s="18"/>
       <c r="K128" s="18"/>
@@ -4348,7 +4315,7 @@
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
     </row>
-    <row r="129" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I129" s="18"/>
       <c r="J129" s="18"/>
       <c r="K129" s="18"/>
@@ -4358,7 +4325,7 @@
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
     </row>
-    <row r="130" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:16" x14ac:dyDescent="0.2">
       <c r="I130" s="18"/>
       <c r="J130" s="18"/>
       <c r="K130" s="18"/>
@@ -4374,7 +4341,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="葉月ゆら（twitter：@yura_hatuki）" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId1" display="葉月ゆら（twitter：@yura_hatuki）"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
